--- a/NON-COVID Player Stats/OL/OL_aggregate.xlsx
+++ b/NON-COVID Player Stats/OL/OL_aggregate.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -62,19 +58,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -89,7 +76,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -452,9 +439,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -468,15 +455,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Season Group</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Comb</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Solo</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Ast</t>
         </is>
@@ -485,266 +477,445 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Dalton Schultz</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
+          <t>Jake Matthews</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Dawson Knox</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Jake Matthews</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Durham Smythe</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
+          <t>Jake Matthews</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Evan Engram</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
+          <t>Laken Tomlinson</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>George Kittle</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Laken Tomlinson</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Hayden Randle Hurst</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
+          <t>Laken Tomlinson</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Jake Matthews</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>0</v>
+          <t>Morgan Cox</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>Johnny Mundt</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Morgan Cox</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Jonnu Smith</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
+          <t>Morgan Cox</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Jordan Akins</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
+          <t>Morgan Moses</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Laken Tomlinson</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="n">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Morgan Moses</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Mark Andrews</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
+          <t>Morgan Moses</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Morgan Cox</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>66.66666666666667</v>
+          <t>Taylor Moton</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>100</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="E14" s="2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>Morgan Moses</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>0</v>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Taylor Moton</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>MyCole Pruitt</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
+          <t>Taylor Moton</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Nick Vannett</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="3" t="n"/>
-      <c r="D17" s="3" t="n"/>
+          <t>Trent Williams</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Ross Dwelley</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Trent Williams</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Taylor Moton</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>200.0000000000001</v>
+          <t>Trent Williams</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="D19" s="3" t="n">
+        <v>-0.3333333333333333</v>
+      </c>
+      <c r="E19" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Trent Williams</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>-100</v>
+          <t>Zach Triner</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-100</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>Tyler Conklin</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="n"/>
-      <c r="C21" s="3" t="n"/>
-      <c r="D21" s="3" t="n"/>
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Zach Triner</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>Will Dissly</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="n"/>
-      <c r="D22" s="2" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
           <t>Zach Triner</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
-        <v>-33.33333333333334</v>
-      </c>
-      <c r="C23" s="3" t="n">
-        <v>-66.66666666666667</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>0</v>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>